--- a/Tables/2022_05_12/Table-1-MCMC-output-SSVS.xlsx
+++ b/Tables/2022_05_12/Table-1-MCMC-output-SSVS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gdirenzo/Github/globi_tritrophic_networks/Tables/2022_05_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B57DE815-4D45-E74F-9BB3-1FEE85712944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{122DCC0D-E0BF-9146-9713-197167FA6C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19680" yWindow="500" windowWidth="18640" windowHeight="19560"/>
+    <workbookView xWindow="19680" yWindow="500" windowWidth="18640" windowHeight="19540"/>
   </bookViews>
   <sheets>
     <sheet name="Table-1-MCMC-output-SSVS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>Bee size</t>
   </si>
@@ -29,6 +29,22 @@
   </si>
   <si>
     <t>Flower shape</t>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
   <si>
     <t>Symbol</t>
@@ -83,6 +99,74 @@
   </si>
   <si>
     <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>μ</t>
     </r>
     <r>
@@ -163,272 +247,491 @@
   </si>
   <si>
     <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>b</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="subscript"/>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>g</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>g</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>g</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>g</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>8</t>
-    </r>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Survey month linear</t>
+  </si>
+  <si>
+    <t>Survey month quadratic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -566,6 +869,29 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Symbol"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -584,25 +910,10 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <vertAlign val="subscript"/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -924,69 +1235,70 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1344,582 +1656,598 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="20.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="3:8" ht="36" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7">
+        <v>-3.39315290035612</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.57582941929874298</v>
+      </c>
+      <c r="G3" s="7">
+        <v>-4.5138558704179799</v>
+      </c>
+      <c r="H3" s="7">
+        <v>-2.2705417742472598</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" ht="35" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7">
+        <v>-0.51480695842698498</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.73672316994414899</v>
+      </c>
+      <c r="G4" s="7">
+        <v>-1.9926413333837101</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.92491626027694696</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="35" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1.76829227874826</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.37230782876756902</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1.12668936279401</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2.5666452972337401</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="35" x14ac:dyDescent="0.25">
+      <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="10">
+        <v>3.5407386196387201</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.57220689742599895</v>
+      </c>
+      <c r="G6" s="10">
+        <v>2.4784685274059801</v>
+      </c>
+      <c r="H6" s="10">
+        <v>4.7007947746459102</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="3:8" ht="36" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="5" t="s">
+      <c r="E7" s="10">
+        <v>1.50731906986701</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.62788021364544699</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.39241744914465398</v>
+      </c>
+      <c r="H7" s="10">
+        <v>2.8497064747562102</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="10">
+        <v>-9.8014902198061193</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1.35521863823884</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-12.419752286011899</v>
+      </c>
+      <c r="H8" s="10">
+        <v>-6.8980110454195902</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1.58516057080899</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.426272863686112</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.70333575859450803</v>
+      </c>
+      <c r="H9" s="10">
+        <v>2.4229057564114802</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1.2125025436963199</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.42820803680916503</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.314258815096917</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2.0233341934429601</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.118866666666667</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.32363694718723801</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4.35482860180188E-2</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.1278</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.33387254408809403</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="7">
+        <v>8.1966666666666702E-2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.27431850206814001</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="7">
+        <v>-0.16196817693391699</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.55517171013698396</v>
+      </c>
+      <c r="G15" s="7">
+        <v>-1.75377722447586</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.77957548876259597</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="7">
+        <v>-0.50697647527010203</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.53357419532903905</v>
+      </c>
+      <c r="G16" s="7">
+        <v>-1.61318102816729</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.11988393453736899</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="35" x14ac:dyDescent="0.25">
+      <c r="C17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="7">
+        <v>8.3637099248338606E-2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.138661466895559</v>
+      </c>
+      <c r="G17" s="7">
+        <v>-8.09265272693801E-2</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.473562995267442</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="35" x14ac:dyDescent="0.25">
+      <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="7">
+        <v>-1.17185603134789E-2</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1.15595531485691E-2</v>
+      </c>
+      <c r="G18" s="7">
+        <v>-4.32267256645186E-2</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3.33872748743296E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2.53595050981095</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.26243270189949403</v>
+      </c>
+      <c r="G19" s="7">
+        <v>2.0455272459710998</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3.0785861817263802</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="7">
+        <v>-1.16805608151947</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.46361302417668898</v>
+      </c>
+      <c r="G20" s="7">
+        <v>-2.0542897927419301</v>
+      </c>
+      <c r="H20" s="7">
+        <v>-5.58923421142851E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="7">
+        <v>-1.04248080394694</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.47652088956744199</v>
+      </c>
+      <c r="G21" s="7">
+        <v>-1.91373270986429</v>
+      </c>
+      <c r="H21" s="7">
+        <v>-3.4962771445760702E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="6">
-        <v>-3.39315290035612</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0.57582941929874298</v>
-      </c>
-      <c r="G3" s="6">
-        <v>-4.5138558704179799</v>
-      </c>
-      <c r="H3" s="6">
-        <v>-2.2705417742472598</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" ht="35" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6">
-        <v>-0.51480695842698498</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.73672316994414899</v>
-      </c>
-      <c r="G4" s="6">
-        <v>-1.9926413333837101</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0.92491626027694696</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" ht="35" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1.76829227874826</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.37230782876756902</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1.12668936279401</v>
-      </c>
-      <c r="H5" s="6">
-        <v>2.5666452972337401</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" ht="35" x14ac:dyDescent="0.25">
-      <c r="C6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="9">
-        <v>3.5407386196387201</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.57220689742599895</v>
-      </c>
-      <c r="G6" s="9">
-        <v>2.4784685274059801</v>
-      </c>
-      <c r="H6" s="9">
-        <v>4.7007947746459102</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2.4795976873687502E-2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.119662888555714</v>
+      </c>
+      <c r="G22" s="7">
+        <v>-0.175146805259285</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.35306686723542702</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.33996666666666697</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.47370540646688802</v>
+      </c>
+      <c r="G23" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1.50731906986701</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0.62788021364544699</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0.39241744914465398</v>
-      </c>
-      <c r="H7" s="9">
-        <v>2.8497064747562102</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="9">
-        <v>-9.8014902198061193</v>
-      </c>
-      <c r="F8" s="9">
-        <v>1.35521863823884</v>
-      </c>
-      <c r="G8" s="9">
-        <v>-12.419752286011899</v>
-      </c>
-      <c r="H8" s="9">
-        <v>-6.8980110454195902</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
+      <c r="H23" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1.58516057080899</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0.426272863686112</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0.70333575859450803</v>
-      </c>
-      <c r="H9" s="9">
-        <v>2.4229057564114802</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="24" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.58496666666666697</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.49273599271229701</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.209966666666667</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.40729129022775801</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="7">
+        <v>2.96333333333333E-2</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.169576405869065</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.99716666666666698</v>
+      </c>
+      <c r="F27" s="7">
+        <v>5.3154489326365899E-2</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.9425</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.232799391147294</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1.2125025436963199</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0.42820803680916503</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.314258815096917</v>
-      </c>
-      <c r="H10" s="6">
-        <v>2.0233341934429601</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
+      <c r="D29" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.28874822801991301</v>
+      </c>
+      <c r="G29" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0.118866666666667</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.32363694718723801</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0.13573333333333301</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0.34251088451671502</v>
+      </c>
+      <c r="G30" s="12">
         <v>0</v>
       </c>
-      <c r="H11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0.99809999999999999</v>
-      </c>
-      <c r="F12" s="6">
-        <v>4.35482860180188E-2</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0.1278</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0.33387254408809403</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="6">
-        <v>8.1966666666666702E-2</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.27431850206814001</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="6">
-        <v>-0.16196817693391699</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0.55517171013698396</v>
-      </c>
-      <c r="G15" s="6">
-        <v>-1.75377722447586</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0.77957548876259597</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="6">
-        <v>-0.50697647527010203</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0.53357419532903905</v>
-      </c>
-      <c r="G16" s="6">
-        <v>-1.61318102816729</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0.11988393453736899</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="35" x14ac:dyDescent="0.25">
-      <c r="C17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="6">
-        <v>8.3637099248338606E-2</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0.138661466895559</v>
-      </c>
-      <c r="G17" s="6">
-        <v>-8.09265272693801E-2</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0.473562995267442</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="35" x14ac:dyDescent="0.25">
-      <c r="C18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="6">
-        <v>-1.17185603134789E-2</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1.15595531485691E-2</v>
-      </c>
-      <c r="G18" s="6">
-        <v>-4.32267256645186E-2</v>
-      </c>
-      <c r="H18" s="6">
-        <v>3.33872748743296E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="6">
-        <v>2.53595050981095</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0.26243270189949403</v>
-      </c>
-      <c r="G19" s="6">
-        <v>2.0455272459710998</v>
-      </c>
-      <c r="H19" s="6">
-        <v>3.0785861817263802</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="6">
-        <v>-1.16805608151947</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0.46361302417668898</v>
-      </c>
-      <c r="G20" s="6">
-        <v>-2.0542897927419301</v>
-      </c>
-      <c r="H20" s="6">
-        <v>-5.58923421142851E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="6">
-        <v>-1.04248080394694</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0.47652088956744199</v>
-      </c>
-      <c r="G21" s="6">
-        <v>-1.91373270986429</v>
-      </c>
-      <c r="H21" s="6">
-        <v>-3.4962771445760702E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="6">
-        <v>2.4795976873687502E-2</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0.119662888555714</v>
-      </c>
-      <c r="G22" s="6">
-        <v>-0.175146805259285</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0.35306686723542702</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="6">
-        <v>0.33996666666666697</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0.47370540646688802</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="6">
-        <v>0.58496666666666697</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0.49273599271229701</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="C25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="6">
-        <v>0.209966666666667</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0.40729129022775801</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="C26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="6">
-        <v>2.96333333333333E-2</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0.169576405869065</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="6">
-        <v>0.99716666666666698</v>
-      </c>
-      <c r="F27" s="6">
-        <v>5.3154489326365899E-2</v>
-      </c>
-      <c r="G27" s="6">
-        <v>1</v>
-      </c>
-      <c r="H27" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="6">
-        <v>0.9425</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0.232799391147294</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="6">
-        <v>0.90820000000000001</v>
-      </c>
-      <c r="F29" s="6">
-        <v>0.28874822801991301</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11">
-        <v>0.13573333333333301</v>
-      </c>
-      <c r="F30" s="11">
-        <v>0.34251088451671502</v>
-      </c>
-      <c r="G30" s="11">
-        <v>0</v>
-      </c>
-      <c r="H30" s="11">
+      <c r="H30" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1927,6 +2255,7 @@
   <mergeCells count="1">
     <mergeCell ref="G2:H2"/>
   </mergeCells>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>